--- a/data/trans_dic/P57B3_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P57B3_R-Habitat-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.1354599145577909</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.1526943530457627</v>
+        <v>0.1526943530457628</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.1443235705371877</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1133282363412166</v>
+        <v>0.1118074055876467</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1314200210337482</v>
+        <v>0.1326636490495699</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1276520545072168</v>
+        <v>0.1281481780775003</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1624926842153061</v>
+        <v>0.1605217673438875</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1735161194468647</v>
+        <v>0.1752011279772736</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1610161292533912</v>
+        <v>0.1606095814976152</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.1600696421189144</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.143578788064514</v>
+        <v>0.1435787880645141</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1066776322157765</v>
+        <v>0.1055737898709924</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1422160510782548</v>
+        <v>0.1425815274621627</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.130080984556068</v>
+        <v>0.12989488790255</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1513710787834674</v>
+        <v>0.1482347160135667</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.180478123855744</v>
+        <v>0.1820668119887031</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1589036806894054</v>
+        <v>0.1591775328168275</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.08975129121297809</v>
+        <v>0.0897512912129781</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.0924704567938795</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07063669023254689</v>
+        <v>0.07094827533958253</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07729225889452458</v>
+        <v>0.07556484574768915</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07754051592675981</v>
+        <v>0.07867349919637606</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1144098273862997</v>
+        <v>0.1149309162284869</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1152165419519785</v>
+        <v>0.1135334111217277</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1067662082272152</v>
+        <v>0.1080979513328293</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1009359110909201</v>
+        <v>0.09989373237272459</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.116177573219083</v>
+        <v>0.1164809408441992</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1142600782307583</v>
+        <v>0.1133668933441774</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1420132833544532</v>
+        <v>0.1406353656400569</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1487879567558487</v>
+        <v>0.1498810750603877</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1406582143893268</v>
+        <v>0.1394749368496194</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1068185570819563</v>
+        <v>0.1077546334598804</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.126593354503137</v>
+        <v>0.1266349277073406</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1192943230172539</v>
+        <v>0.1203151688230486</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1287911694141884</v>
+        <v>0.1287857498224974</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1458432072063873</v>
+        <v>0.1455368514865209</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1339332982770171</v>
+        <v>0.1347667107535396</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>78277</v>
+        <v>77226</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>96118</v>
+        <v>97027</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>181532</v>
+        <v>182238</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>112235</v>
+        <v>110874</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>126906</v>
+        <v>128138</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>228979</v>
+        <v>228401</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>111773</v>
+        <v>110616</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>152127</v>
+        <v>152518</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>275440</v>
+        <v>275046</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>158601</v>
+        <v>155315</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>193056</v>
+        <v>194755</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>336471</v>
+        <v>337051</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>56661</v>
+        <v>56911</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>62690</v>
+        <v>61289</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>125090</v>
+        <v>126918</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>91773</v>
+        <v>92191</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>93449</v>
+        <v>92084</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>172237</v>
+        <v>174386</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>99933</v>
+        <v>98901</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>129761</v>
+        <v>130099</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>240743</v>
+        <v>238862</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>140602</v>
+        <v>139238</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>166184</v>
+        <v>167405</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>296364</v>
+        <v>293871</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>377142</v>
+        <v>380447</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>472074</v>
+        <v>472229</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>866046</v>
+        <v>873457</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>454720</v>
+        <v>454701</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>543858</v>
+        <v>542716</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>972321</v>
+        <v>978371</v>
       </c>
     </row>
     <row r="24">
